--- a/student_certificates.xlsx
+++ b/student_certificates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6290ac79964e0d09/Documents/XCEL FOR PROJECT FINAL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6290ac79964e0d09/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35FF2A9B-3CDB-47BD-990E-3B49FE48D39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{16E20E1D-E227-492B-9E11-6138B791E525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB60F42-24E8-4B5A-BB59-B14DBC5C3EE6}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="16044" windowHeight="12336" xr2:uid="{E25DD807-D072-423B-8E8B-F58ACF540ED1}"/>
+    <workbookView minimized="1" xWindow="3492" yWindow="1800" windowWidth="14496" windowHeight="8880" xr2:uid="{E25DD807-D072-423B-8E8B-F58ACF540ED1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="95">
   <si>
     <t>HALLTICKET</t>
   </si>
@@ -43,9 +43,6 @@
     <t>NAME</t>
   </si>
   <si>
-    <t>COURSE</t>
-  </si>
-  <si>
     <t>BRANCH</t>
   </si>
   <si>
@@ -55,60 +52,9 @@
     <t>PASSOUT YEAR</t>
   </si>
   <si>
-    <t>246Y1A6694</t>
-  </si>
-  <si>
-    <t>246Y1A6692</t>
-  </si>
-  <si>
-    <t>246Y1A6693</t>
-  </si>
-  <si>
-    <t>246Y1A6708</t>
-  </si>
-  <si>
     <t>246Y1A6755</t>
   </si>
   <si>
-    <t>246Y1A6677</t>
-  </si>
-  <si>
-    <t>246Y1A6681</t>
-  </si>
-  <si>
-    <t>246Y1A6690</t>
-  </si>
-  <si>
-    <t>246Y1A6691</t>
-  </si>
-  <si>
-    <t>B.SRUJANA</t>
-  </si>
-  <si>
-    <t>Y.SRIJA</t>
-  </si>
-  <si>
-    <t>M.KREETHIKA</t>
-  </si>
-  <si>
-    <t>M.SAHITHYA</t>
-  </si>
-  <si>
-    <t>K.SAHITHI</t>
-  </si>
-  <si>
-    <t>K.SHIVANI</t>
-  </si>
-  <si>
-    <t>SAHASRA</t>
-  </si>
-  <si>
-    <t>HARINI</t>
-  </si>
-  <si>
-    <t>ANUSHKA</t>
-  </si>
-  <si>
     <t>CSD</t>
   </si>
   <si>
@@ -118,9 +64,6 @@
     <t>ECE</t>
   </si>
   <si>
-    <t>BTECH</t>
-  </si>
-  <si>
     <t>CSE</t>
   </si>
   <si>
@@ -139,15 +82,6 @@
     <t>K.SHIVAPRASAD</t>
   </si>
   <si>
-    <t>RAJESH</t>
-  </si>
-  <si>
-    <t>ADITYA</t>
-  </si>
-  <si>
-    <t>ARYAN</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -160,12 +94,6 @@
     <t>GOURI SHANKAR</t>
   </si>
   <si>
-    <t>CERTIFICATES DEPOSITED</t>
-  </si>
-  <si>
-    <t>SSC, Inter, Study Certificates</t>
-  </si>
-  <si>
     <t>TUITION FEE</t>
   </si>
   <si>
@@ -262,15 +190,6 @@
     <t>KAZIPET</t>
   </si>
   <si>
-    <t>BCA</t>
-  </si>
-  <si>
-    <t>BCB</t>
-  </si>
-  <si>
-    <t>OC</t>
-  </si>
-  <si>
     <t>ST</t>
   </si>
   <si>
@@ -278,6 +197,129 @@
   </si>
   <si>
     <t>VADERA</t>
+  </si>
+  <si>
+    <t>BUS FEE</t>
+  </si>
+  <si>
+    <t>226Y1A6755</t>
+  </si>
+  <si>
+    <t>226Y1A6655</t>
+  </si>
+  <si>
+    <t>246Y1A6655</t>
+  </si>
+  <si>
+    <t>236Y1A6655</t>
+  </si>
+  <si>
+    <t>236Y1A6755</t>
+  </si>
+  <si>
+    <t>256Y1A6755</t>
+  </si>
+  <si>
+    <t>256Y1A6655</t>
+  </si>
+  <si>
+    <t>216Y1A6655</t>
+  </si>
+  <si>
+    <t>216Y1A6755</t>
+  </si>
+  <si>
+    <t>ANUSHKA MIRIGESH</t>
+  </si>
+  <si>
+    <t>KOLANUPAKA SHIVANI</t>
+  </si>
+  <si>
+    <t>KASULA SAHITHI</t>
+  </si>
+  <si>
+    <t>MANMADI SAHITHYA</t>
+  </si>
+  <si>
+    <t>MANIMADDE KREETHIKA</t>
+  </si>
+  <si>
+    <t>BATHINI SRUJANA</t>
+  </si>
+  <si>
+    <t>HARINI LAKAVATH</t>
+  </si>
+  <si>
+    <t>SAHASRA REDDY</t>
+  </si>
+  <si>
+    <t>MAYA KASANI</t>
+  </si>
+  <si>
+    <t>Y SRIJA</t>
+  </si>
+  <si>
+    <t>MANU CHARAN KASANI</t>
+  </si>
+  <si>
+    <t>ADITYA REDDY</t>
+  </si>
+  <si>
+    <t>ARYAN LAKAVATH</t>
+  </si>
+  <si>
+    <t>RAJESH MIRIGESH</t>
+  </si>
+  <si>
+    <t>IV year</t>
+  </si>
+  <si>
+    <t>III year</t>
+  </si>
+  <si>
+    <t>I year</t>
+  </si>
+  <si>
+    <t>54-652</t>
+  </si>
+  <si>
+    <t>BC-A</t>
+  </si>
+  <si>
+    <t>BC-B</t>
+  </si>
+  <si>
+    <t>ADMIN NO</t>
+  </si>
+  <si>
+    <t>4687-778</t>
+  </si>
+  <si>
+    <t>4687-779</t>
+  </si>
+  <si>
+    <t>4687-780</t>
+  </si>
+  <si>
+    <t>4687-781</t>
+  </si>
+  <si>
+    <t>4687-782</t>
+  </si>
+  <si>
+    <t>4687-783</t>
+  </si>
+  <si>
+    <t>4687-784</t>
+  </si>
+  <si>
+    <t>4687-785</t>
+  </si>
+  <si>
+    <t>4687-786</t>
+  </si>
+  <si>
+    <t>4687-787</t>
   </si>
 </sst>
 </file>
@@ -347,10 +389,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -670,19 +708,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{553D62EC-303F-4B51-9ADC-4210309DDC4B}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:X11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="16.77734375" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" customWidth="1"/>
     <col min="9" max="9" width="23.44140625" customWidth="1"/>
@@ -695,6 +734,7 @@
     <col min="20" max="20" width="15" customWidth="1"/>
     <col min="21" max="21" width="15.6640625" customWidth="1"/>
     <col min="22" max="22" width="13.6640625" customWidth="1"/>
+    <col min="23" max="23" width="12.109375" customWidth="1"/>
     <col min="24" max="24" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -706,736 +746,810 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="W1" s="1" t="s">
-        <v>61</v>
+        <v>38</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>2022</v>
       </c>
       <c r="E2">
-        <v>2024</v>
-      </c>
-      <c r="F2">
-        <v>2028</v>
+        <v>2026</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" s="2">
+        <v>28</v>
+      </c>
+      <c r="J2" s="2">
         <v>50000</v>
       </c>
+      <c r="K2">
+        <v>3500</v>
+      </c>
       <c r="L2">
-        <v>3500</v>
-      </c>
-      <c r="M2">
         <v>3000</v>
       </c>
-      <c r="N2" s="2">
+      <c r="M2" s="2">
         <v>2500</v>
       </c>
-      <c r="O2" t="s">
-        <v>50</v>
+      <c r="N2">
+        <v>58000</v>
+      </c>
+      <c r="O2" s="2">
+        <v>30000</v>
       </c>
       <c r="P2" s="2">
         <v>59000</v>
       </c>
       <c r="Q2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>74</v>
-      </c>
-      <c r="T2" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2">
+        <v>49</v>
+      </c>
+      <c r="T2">
         <v>50</v>
       </c>
+      <c r="U2" t="s">
+        <v>48</v>
+      </c>
       <c r="V2" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="W2" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>2022</v>
+      </c>
+      <c r="E3">
+        <v>2026</v>
+      </c>
+      <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3">
-        <v>2024</v>
-      </c>
-      <c r="F3">
-        <v>2028</v>
-      </c>
-      <c r="G3" t="s">
-        <v>53</v>
-      </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" t="s">
-        <v>52</v>
-      </c>
-      <c r="K3" s="2">
+        <v>28</v>
+      </c>
+      <c r="J3" s="2">
         <v>50000</v>
       </c>
+      <c r="K3">
+        <v>3500</v>
+      </c>
       <c r="L3">
-        <v>3500</v>
-      </c>
-      <c r="M3">
         <v>3000</v>
       </c>
-      <c r="N3" s="2">
+      <c r="M3" s="2">
         <v>2500</v>
       </c>
-      <c r="O3" t="s">
-        <v>50</v>
+      <c r="N3">
+        <v>58000</v>
+      </c>
+      <c r="O3" s="2">
+        <v>30000</v>
       </c>
       <c r="P3" s="2">
         <v>59000</v>
       </c>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="S3" t="s">
-        <v>74</v>
-      </c>
-      <c r="T3" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3">
+        <v>49</v>
+      </c>
+      <c r="T3">
         <v>30</v>
       </c>
+      <c r="U3" t="s">
+        <v>48</v>
+      </c>
       <c r="V3" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="W3" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="X3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>2023</v>
       </c>
       <c r="E4">
-        <v>2024</v>
-      </c>
-      <c r="F4">
-        <v>2028</v>
+        <v>2027</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K4" s="2">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2">
         <v>50000</v>
       </c>
+      <c r="K4">
+        <v>3500</v>
+      </c>
       <c r="L4">
-        <v>3500</v>
-      </c>
-      <c r="M4">
         <v>3000</v>
       </c>
-      <c r="N4" s="2">
+      <c r="M4" s="2">
         <v>2500</v>
       </c>
-      <c r="O4" t="s">
-        <v>50</v>
+      <c r="N4">
+        <v>58000</v>
+      </c>
+      <c r="O4" s="2">
+        <v>30000</v>
       </c>
       <c r="P4" s="2">
         <v>59000</v>
       </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>65</v>
+      <c r="Q4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>74</v>
-      </c>
-      <c r="T4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4">
+        <v>49</v>
+      </c>
+      <c r="T4">
         <v>20</v>
       </c>
+      <c r="U4" t="s">
+        <v>48</v>
+      </c>
       <c r="V4" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
+      <c r="D5">
+        <v>2023</v>
       </c>
       <c r="E5">
-        <v>2024</v>
-      </c>
-      <c r="F5">
-        <v>2028</v>
+        <v>2027</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>52</v>
-      </c>
-      <c r="K5" s="2">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2">
         <v>50000</v>
       </c>
+      <c r="K5">
+        <v>3500</v>
+      </c>
       <c r="L5">
-        <v>3500</v>
-      </c>
-      <c r="M5">
         <v>3000</v>
       </c>
-      <c r="N5" s="2">
+      <c r="M5" s="2">
         <v>2500</v>
       </c>
-      <c r="O5" t="s">
-        <v>50</v>
+      <c r="N5">
+        <v>58000</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="P5" s="2">
         <v>59000</v>
       </c>
-      <c r="Q5" t="s">
-        <v>55</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>66</v>
+      <c r="Q5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="R5" t="s">
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
-      </c>
-      <c r="T5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5">
+        <v>49</v>
+      </c>
+      <c r="T5">
         <v>43</v>
       </c>
+      <c r="U5" t="s">
+        <v>48</v>
+      </c>
       <c r="V5" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="W5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2024</v>
       </c>
       <c r="E6">
-        <v>2024</v>
-      </c>
-      <c r="F6">
         <v>2028</v>
       </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="2">
+        <v>28</v>
+      </c>
+      <c r="J6" s="2">
         <v>50000</v>
       </c>
+      <c r="K6">
+        <v>3500</v>
+      </c>
       <c r="L6">
-        <v>3500</v>
-      </c>
-      <c r="M6">
         <v>3000</v>
       </c>
-      <c r="N6" s="2">
+      <c r="M6" s="2">
         <v>2500</v>
       </c>
-      <c r="O6" t="s">
-        <v>50</v>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="2">
+        <v>30000</v>
       </c>
       <c r="P6" s="2">
         <v>59000</v>
       </c>
       <c r="Q6" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" t="s">
-        <v>73</v>
-      </c>
-      <c r="U6">
+        <v>49</v>
+      </c>
+      <c r="T6">
         <v>51</v>
       </c>
+      <c r="U6" t="s">
+        <v>48</v>
+      </c>
       <c r="V6" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="W6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="X6" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2024</v>
       </c>
       <c r="E7">
-        <v>2024</v>
-      </c>
-      <c r="F7">
         <v>2028</v>
       </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" s="2">
+        <v>28</v>
+      </c>
+      <c r="J7" s="2">
         <v>50000</v>
       </c>
+      <c r="K7">
+        <v>3500</v>
+      </c>
       <c r="L7">
-        <v>3500</v>
-      </c>
-      <c r="M7">
         <v>3000</v>
       </c>
-      <c r="N7" s="2">
+      <c r="M7" s="2">
         <v>2500</v>
       </c>
-      <c r="O7" t="s">
-        <v>50</v>
+      <c r="N7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="P7" s="2">
         <v>59000</v>
       </c>
       <c r="Q7" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>74</v>
-      </c>
-      <c r="T7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U7">
+        <v>49</v>
+      </c>
+      <c r="T7">
         <v>21</v>
       </c>
+      <c r="U7" t="s">
+        <v>48</v>
+      </c>
       <c r="V7" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="W7" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="X7" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2025</v>
+      </c>
+      <c r="E8">
+        <v>2029</v>
+      </c>
+      <c r="F8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2">
+        <v>50000</v>
+      </c>
+      <c r="K8">
+        <v>3500</v>
+      </c>
+      <c r="L8">
+        <v>3000</v>
+      </c>
+      <c r="M8" s="2">
+        <v>2500</v>
+      </c>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O8" s="2">
+        <v>30000</v>
+      </c>
+      <c r="P8" s="2">
+        <v>59000</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>45</v>
+      </c>
+      <c r="R8" t="s">
+        <v>50</v>
+      </c>
+      <c r="S8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8">
-        <v>2020</v>
-      </c>
-      <c r="F8">
-        <v>2024</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" t="s">
-        <v>50</v>
-      </c>
-      <c r="N8" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" t="s">
-        <v>50</v>
-      </c>
-      <c r="P8" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>49</v>
-      </c>
-      <c r="R8" t="s">
-        <v>69</v>
-      </c>
-      <c r="S8" t="s">
-        <v>74</v>
-      </c>
-      <c r="T8" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8">
-        <v>13</v>
+      <c r="U8" t="s">
+        <v>48</v>
       </c>
       <c r="V8" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="W8" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="X8" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>2025</v>
       </c>
       <c r="E9">
-        <v>2021</v>
-      </c>
-      <c r="F9">
-        <v>2025</v>
+        <v>2029</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="K9">
+        <v>3500</v>
+      </c>
+      <c r="L9">
+        <v>3000</v>
+      </c>
+      <c r="M9" t="s">
+        <v>26</v>
+      </c>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
+      <c r="O9" s="2">
+        <v>30000</v>
+      </c>
+      <c r="P9" s="2">
+        <v>59000</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>46</v>
+      </c>
+      <c r="R9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S9" t="s">
         <v>49</v>
       </c>
-      <c r="K9" t="s">
-        <v>50</v>
-      </c>
-      <c r="L9" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" t="s">
-        <v>50</v>
-      </c>
-      <c r="N9" t="s">
-        <v>50</v>
-      </c>
-      <c r="O9" t="s">
-        <v>50</v>
-      </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>49</v>
-      </c>
-      <c r="R9" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" t="s">
-        <v>74</v>
-      </c>
-      <c r="T9" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9">
+      <c r="T9">
         <v>52</v>
       </c>
+      <c r="U9" t="s">
+        <v>48</v>
+      </c>
       <c r="V9" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="X9" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>2021</v>
       </c>
       <c r="E10">
+        <v>2025</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N10" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>47</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>49</v>
+      </c>
+      <c r="T10">
+        <v>32</v>
+      </c>
+      <c r="U10" t="s">
+        <v>48</v>
+      </c>
+      <c r="V10" t="s">
+        <v>52</v>
+      </c>
+      <c r="W10" t="s">
+        <v>53</v>
+      </c>
+      <c r="X10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
         <v>2021</v>
       </c>
-      <c r="F10">
+      <c r="E11">
         <v>2025</v>
       </c>
-      <c r="G10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J10" t="s">
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>26</v>
+      </c>
+      <c r="N11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>81</v>
+      </c>
+      <c r="R11" t="s">
+        <v>50</v>
+      </c>
+      <c r="S11" t="s">
         <v>49</v>
       </c>
-      <c r="K10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M10" t="s">
-        <v>50</v>
-      </c>
-      <c r="N10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O10" t="s">
-        <v>50</v>
-      </c>
-      <c r="P10" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" t="s">
-        <v>71</v>
-      </c>
-      <c r="S10" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" t="s">
-        <v>73</v>
-      </c>
-      <c r="U10">
+      <c r="T11">
         <v>32</v>
       </c>
-      <c r="V10" t="s">
-        <v>72</v>
-      </c>
-      <c r="W10" t="s">
-        <v>76</v>
-      </c>
-      <c r="X10" t="s">
-        <v>80</v>
+      <c r="U11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V11" t="s">
+        <v>52</v>
+      </c>
+      <c r="W11" t="s">
+        <v>53</v>
+      </c>
+      <c r="X11" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/student_certificates.xlsx
+++ b/student_certificates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1571,6 +1571,82 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
     </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>HT2025EX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Demo Student</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>STUDYING</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TEST002</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Test2</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>COMPLETED</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
